--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddalloss\OneDrive - Engineering Ingegneria Informatica S.p.A\Documenti\CDA2\Accreditamento FSE 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/daniele_dallosso_eng_it/Documents/Documenti/CDA2/Accreditamento FSE 2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E548DED-EDE5-4F6D-8FF3-6371B4E1C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{3E548DED-EDE5-4F6D-8FF3-6371B4E1C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD23B8B-DB20-49B9-9D61-C5579FEDC4C2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -594,9 +594,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.e6ef53326d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Sono presenti controlli applicativi che impediscono di inserire codici fiscali non validi. Per quanto riguarda le lettere minuscole viene fatto un uppercase automatico.</t>
-  </si>
-  <si>
     <t>2023-02-01T16:43:46Z</t>
   </si>
   <si>
@@ -604,9 +601,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.6f398180e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Sebbene l'applicativo consenta di inserire il valore R - Restricted per il confidentiality code la procedura di generazione del CDA2 converte questo valore in V o in N a seconda di quanto concordato con il cliente.</t>
   </si>
   <si>
     <t>2023-02-01T16:54:51Z</t>
@@ -630,9 +624,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.cd2b807425^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Il nome del paziente è un campo obbligatorio e l'applicativo non consente di aprire un ricovero in assenza di questo dato. L'applicativo gestisce i pazienti sconosciuti ma prima della dimissione questi devono essere collegati ad una anagrafica esistente.</t>
-  </si>
-  <si>
     <t>2023-02-01T17:16:26Z</t>
   </si>
   <si>
@@ -652,9 +643,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.cda8a966a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>La diagnosi alla dimissione è un campo obbligatorio e l'applicativo non consente di validare la LDO senza averla prima valorizzata.</t>
   </si>
   <si>
     <t>2023-02-01T17:31:41Z</t>
@@ -678,9 +666,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.1c3ccbfb64^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>La data di rilevazione dell'anamnesi è un campo obbligatorio.</t>
-  </si>
-  <si>
     <t>2023-02-01T17:46:06Z</t>
   </si>
   <si>
@@ -688,9 +673,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.06ddb45e37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>La data di inizio somministrazione è obbligatoria. All'atto della dimissione, qualora l'operatore non abbia dichiarato come terminate le terapie infusionali in corso queste vengono terminate automaticamente impostando come data di fine quella di sistema.</t>
   </si>
   <si>
     <t>2023-02-01T17:54:24Z</t>
@@ -715,6 +697,9 @@
   </si>
   <si>
     <t>Viene segnalato all'operatore un problema sulla via di somministrazione di un farmaco somministrato. L'operatore non è autonomo nella risoluzione bensì è necessario un intervento di configurazione.</t>
+  </si>
+  <si>
+    <t>Viene segnalato un problema di collegamento al gateway e si chiede all'utente di provare più tardi.</t>
   </si>
 </sst>
 </file>
@@ -1235,6 +1220,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1252,13 +1244,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2627,10 +2612,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2639,7 +2624,7 @@
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" customWidth="1"/>
     <col min="6" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.28515625" customWidth="1"/>
@@ -2661,12 +2646,12 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="41"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2679,14 +2664,14 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="41"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2699,12 +2684,12 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="46" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2718,12 +2703,12 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2736,8 +2721,8 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2853,10 +2838,14 @@
         <v>94</v>
       </c>
       <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="K10" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
+      <c r="N10" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1">
@@ -2881,17 +2870,21 @@
       <c r="G11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="37" t="s">
         <v>96</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>97</v>
       </c>
       <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="N11" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1">
@@ -2923,10 +2916,14 @@
         <v>100</v>
       </c>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="K12" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
+      <c r="N12" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="O12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1">
@@ -2958,10 +2955,14 @@
         <v>103</v>
       </c>
       <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
+      <c r="N13" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1">
@@ -2984,8 +2985,12 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="20" t="s">
@@ -3013,8 +3018,12 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="20" t="s">
@@ -3129,9 +3138,7 @@
         <v>43</v>
       </c>
       <c r="L18" s="19"/>
-      <c r="M18" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="M18" s="19"/>
       <c r="N18" s="20" t="s">
         <v>43</v>
       </c>
@@ -3157,22 +3164,20 @@
         <v>44958.697060185186</v>
       </c>
       <c r="G19" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="L19" s="19"/>
-      <c r="M19" s="19" t="s">
-        <v>116</v>
-      </c>
+      <c r="M19" s="19"/>
       <c r="N19" s="20" t="s">
         <v>43</v>
       </c>
@@ -3198,16 +3203,16 @@
         <v>44958.704756944448</v>
       </c>
       <c r="G20" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="J20" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>43</v>
@@ -3239,22 +3244,20 @@
         <v>44958.710370370369</v>
       </c>
       <c r="G21" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="19"/>
-      <c r="M21" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="M21" s="19"/>
       <c r="N21" s="20" t="s">
         <v>43</v>
       </c>
@@ -3280,16 +3283,16 @@
         <v>44958.71974537037</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>43</v>
@@ -3321,22 +3324,20 @@
         <v>44958.724502314813</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19" t="s">
         <v>43</v>
       </c>
       <c r="L23" s="19"/>
-      <c r="M23" s="19" t="s">
-        <v>132</v>
-      </c>
+      <c r="M23" s="19"/>
       <c r="N23" s="20" t="s">
         <v>43</v>
       </c>
@@ -3362,16 +3363,16 @@
         <v>44958.73033564815</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>43</v>
@@ -3405,22 +3406,20 @@
         <v>44958.735335648147</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="19" t="s">
         <v>43</v>
       </c>
       <c r="L25" s="19"/>
-      <c r="M25" s="19" t="s">
-        <v>140</v>
-      </c>
+      <c r="M25" s="19"/>
       <c r="N25" s="20" t="s">
         <v>43</v>
       </c>
@@ -3446,22 +3445,20 @@
         <v>44958.740347222221</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="19" t="s">
         <v>43</v>
       </c>
       <c r="L26" s="19"/>
-      <c r="M26" s="19" t="s">
-        <v>144</v>
-      </c>
+      <c r="M26" s="19"/>
       <c r="N26" s="20" t="s">
         <v>43</v>
       </c>
@@ -3487,16 +3484,16 @@
         <v>44958.746111111112</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>43</v>
@@ -3528,16 +3525,16 @@
         <v>44958.751944444448</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>43</v>
@@ -13701,8 +13698,8 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/daniele_dallosso_eng_it/Documents/Documenti/CDA2/Accreditamento FSE 2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{3E548DED-EDE5-4F6D-8FF3-6371B4E1C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FD23B8B-DB20-49B9-9D61-C5579FEDC4C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1951EB32-6A19-4998-9745-6DCD91B2EFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="2460" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$9:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhXj7RfszpgZKzxg8oD/Tet7lb94w=="/>
     </ext>
@@ -94,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -235,9 +246,6 @@
     <t>VALIDAZIONE</t>
   </si>
   <si>
-    <t>LAB</t>
-  </si>
-  <si>
     <t>LDO</t>
   </si>
   <si>
@@ -249,12 +257,33 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>2023-02-01T18:04:21Z</t>
+  </si>
+  <si>
+    <t>d6e49cc46a61b64a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.599582e4fd1d8f41688834638d9d670cd47c0b6506d946898d2c323b5f453873.a5c2d993f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT2</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-02-01T18:05:31Z</t>
+  </si>
+  <si>
+    <t>251e35756dc41255</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.45a827ba1c8f8a952c105e7db3b842fdd1baa18daec03620209651032b539fa5.5fee7b270c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -265,6 +294,15 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>2023-02-01T18:12:12Z</t>
+  </si>
+  <si>
+    <t>af3c6e3702e0de6c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.2c05340a1a83dadf13c27f7f5e29d823c6e44ff263fccedee2a3a6a55bb86f9f.8508b13d9c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
   </si>
   <si>
@@ -273,19 +311,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>RAD</t>
+    <t>2023-02-01T16:13:09Z</t>
   </si>
   <si>
-    <t>CERT_VAC</t>
+    <t>54a3990659756f48</t>
   </si>
   <si>
-    <t>SING_VAC</t>
-  </si>
-  <si>
-    <t>VPS</t>
-  </si>
-  <si>
-    <t>SI</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.13d2234d90^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -330,6 +362,18 @@
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
     </r>
+  </si>
+  <si>
+    <t>2023-02-08T17:55:27Z</t>
+  </si>
+  <si>
+    <t>df8685e2c8cfec4d</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>Viene segnalato un errore di connessione al gateway e si chiede di segnalare il problema all'amministratore di sistema.</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
@@ -377,11 +421,20 @@
     </r>
   </si>
   <si>
+    <t>2023-02-08T17:51:35Z</t>
+  </si>
+  <si>
+    <t>76bd95c4375457b0</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>VALIDAZIONE_LDO_TIMEOUT</t>
+    <t>Viene segnalato un errore di timeout e si chiede all'utente di provare più tardi.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -392,12 +445,36 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
+    <t>2023-02-01T16:24:52Z</t>
+  </si>
+  <si>
+    <t>7888d63f610cfe89</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.a7b9959a97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di valorizzare il campo mancante CF, STP o ENI. Se non abilitato dovrà rivolgersi ad un operatore abilitato alla modifica anagrafica dei pazienti.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-02-01T16:34:58Z</t>
+  </si>
+  <si>
+    <t>c61c8c2651c4127e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.e6ef53326d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene mostrato a video l'errore di validazione ottenuto e richiesto all'utente di correggere il dato prima di riprovare</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT7_KO</t>
@@ -408,12 +485,33 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
+    <t>2023-02-01T16:43:46Z</t>
+  </si>
+  <si>
+    <t>d15b85291a295bad</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.6f398180e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-02-01T16:54:51Z</t>
+  </si>
+  <si>
+    <t>5f6d3ee40a95c79b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.b44ba8969d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di valorizzare il campo mancante (Comune di residenza)</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
@@ -424,12 +522,33 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
+    <t>2023-02-01T17:02:56Z</t>
+  </si>
+  <si>
+    <t>288eb3d9d95136c9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.cd2b807425^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-02-01T17:16:26Z</t>
+  </si>
+  <si>
+    <t>02206d83eda5b6f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.6eee411a7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di valorizzare il campo mancante (Sesso del paziente)</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
@@ -440,12 +559,36 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
+    <t>2023-02-01T17:23:17Z</t>
+  </si>
+  <si>
+    <t>53dab426dc533330</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.cda8a966a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-02-01T17:31:41Z</t>
+  </si>
+  <si>
+    <t>ebe66491f4ad1eb3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.5c9df88d03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiesto all'operatore di valorizzare il campo mancante (Decorso ospedaliero)</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
@@ -456,12 +599,30 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
+    <t>2023-02-01T17:38:53Z</t>
+  </si>
+  <si>
+    <t>095081c15ddf524f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.1c3ccbfb64^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-02-01T17:46:06Z</t>
+  </si>
+  <si>
+    <t>8f3a2635375e75e4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.06ddb45e37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
@@ -472,6 +633,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
+    <t>2023-02-01T17:54:24Z</t>
+  </si>
+  <si>
+    <t>68d27cd52d98fa67</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.67b9ce2cf9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore un problema sulla codifica della diagnosi selezionata. L'operatore non è autonomo nella risoluzione bensì è necessario un intervento di configurazione.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
   </si>
   <si>
@@ -480,10 +653,25 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
+    <t>2023-02-01T18:02:48Z</t>
+  </si>
+  <si>
+    <t>0c5fcfef3990fe1a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.5d30cc0b4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore un problema sulla via di somministrazione di un farmaco somministrato. L'operatore non è autonomo nella risoluzione bensì è necessario un intervento di configurazione.</t>
+  </si>
+  <si>
     <t>ID TEST CASE OK</t>
   </si>
   <si>
     <t>ID TEST CASE KO</t>
+  </si>
+  <si>
+    <t>LAB</t>
   </si>
   <si>
     <t>Validazione</t>
@@ -501,10 +689,16 @@
     <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
   </si>
   <si>
+    <t>RAD</t>
+  </si>
+  <si>
     <t>11,12,13,14</t>
   </si>
   <si>
     <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
+  </si>
+  <si>
+    <t>CERT_VAC</t>
   </si>
   <si>
     <t>16,17,18,19</t>
@@ -513,10 +707,16 @@
     <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
   </si>
   <si>
+    <t>SING_VAC</t>
+  </si>
+  <si>
     <t>20,21,22,23</t>
   </si>
   <si>
     <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
+  </si>
+  <si>
+    <t>VPS</t>
   </si>
   <si>
     <t>24,25,26,27</t>
@@ -528,185 +728,14 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>2023-02-01T18:04:21Z</t>
-  </si>
-  <si>
-    <t>d6e49cc46a61b64a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.599582e4fd1d8f41688834638d9d670cd47c0b6506d946898d2c323b5f453873.a5c2d993f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T18:05:31Z</t>
-  </si>
-  <si>
-    <t>251e35756dc41255</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.45a827ba1c8f8a952c105e7db3b842fdd1baa18daec03620209651032b539fa5.5fee7b270c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T18:12:12Z</t>
-  </si>
-  <si>
-    <t>af3c6e3702e0de6c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.2c05340a1a83dadf13c27f7f5e29d823c6e44ff263fccedee2a3a6a55bb86f9f.8508b13d9c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T16:13:09Z</t>
-  </si>
-  <si>
-    <t>54a3990659756f48</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.13d2234d90^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene segnalato un errore di timeout e si chiede all'utente di provare più tardi.</t>
-  </si>
-  <si>
-    <t>2023-02-01T16:24:52Z</t>
-  </si>
-  <si>
-    <t>7888d63f610cfe89</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.a7b9959a97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di valorizzare il campo mancante CF, STP o ENI. Se non abilitato dovrà rivolgersi ad un operatore abilitato alla modifica anagrafica dei pazienti.</t>
-  </si>
-  <si>
-    <t>2023-02-01T16:34:58Z</t>
-  </si>
-  <si>
-    <t>c61c8c2651c4127e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.e6ef53326d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T16:43:46Z</t>
-  </si>
-  <si>
-    <t>d15b85291a295bad</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.6f398180e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T16:54:51Z</t>
-  </si>
-  <si>
-    <t>5f6d3ee40a95c79b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.b44ba8969d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di valorizzare il campo mancante (Comune di residenza)</t>
-  </si>
-  <si>
-    <t>2023-02-01T17:02:56Z</t>
-  </si>
-  <si>
-    <t>288eb3d9d95136c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.cd2b807425^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T17:16:26Z</t>
-  </si>
-  <si>
-    <t>02206d83eda5b6f5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.6eee411a7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di valorizzare il campo mancante (Sesso del paziente)</t>
-  </si>
-  <si>
-    <t>2023-02-01T17:23:17Z</t>
-  </si>
-  <si>
-    <t>53dab426dc533330</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.cda8a966a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T17:31:41Z</t>
-  </si>
-  <si>
-    <t>ebe66491f4ad1eb3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.5c9df88d03^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di valorizzare il campo mancante (Decorso ospedaliero)</t>
-  </si>
-  <si>
-    <t>2023-02-01T17:38:53Z</t>
-  </si>
-  <si>
-    <t>095081c15ddf524f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.1c3ccbfb64^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T17:46:06Z</t>
-  </si>
-  <si>
-    <t>8f3a2635375e75e4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.06ddb45e37^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-01T17:54:24Z</t>
-  </si>
-  <si>
-    <t>68d27cd52d98fa67</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.67b9ce2cf9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore un problema sulla codifica della diagnosi selezionata. L'operatore non è autonomo nella risoluzione bensì è necessario un intervento di configurazione.</t>
-  </si>
-  <si>
-    <t>2023-02-01T18:02:48Z</t>
-  </si>
-  <si>
-    <t>0c5fcfef3990fe1a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.5d30cc0b4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore un problema sulla via di somministrazione di un farmaco somministrato. L'operatore non è autonomo nella risoluzione bensì è necessario un intervento di configurazione.</t>
-  </si>
-  <si>
-    <t>Viene segnalato un problema di collegamento al gateway e si chiede all'utente di provare più tardi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,6 +791,11 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1128,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1223,28 +1257,31 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2612,19 +2649,19 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="79.5703125" customWidth="1"/>
     <col min="6" max="9" width="33.28515625" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="33.28515625" customWidth="1"/>
@@ -2649,9 +2686,9 @@
       <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2664,14 +2701,14 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="44"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2684,12 +2721,12 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2703,12 +2740,12 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="44"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2721,8 +2758,8 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2809,7 +2846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1">
+    <row r="10" spans="1:15" ht="183">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2817,38 +2854,36 @@
         <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="17">
         <v>44958.753020833334</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N10" s="20"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1">
+    <row r="11" spans="1:15" ht="183">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2856,38 +2891,36 @@
         <v>28</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="17">
         <v>44958.753831018519</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N11" s="20"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1">
+    <row r="12" spans="1:15" ht="183">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -2895,38 +2928,36 @@
         <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F12" s="17">
         <v>44958.758472222224</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N12" s="20"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1">
+    <row r="13" spans="1:15" ht="183">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2934,38 +2965,36 @@
         <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F13" s="17">
         <v>44958.675798611112</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="N13" s="20"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1">
+    <row r="14" spans="1:15" ht="137.25">
       <c r="A14" s="14">
         <v>29</v>
       </c>
@@ -2973,32 +3002,40 @@
         <v>28</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="F14" s="17">
+        <v>44965.746840277781</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="J14" s="19" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:15" ht="137.25">
       <c r="A15" s="14">
         <v>37</v>
       </c>
@@ -3006,32 +3043,40 @@
         <v>28</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="F15" s="17">
+        <v>44965.744155092594</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="J15" s="19" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1">
+    <row r="16" spans="1:15" ht="45.75">
       <c r="A16" s="14">
         <v>45</v>
       </c>
@@ -3039,32 +3084,32 @@
         <v>28</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+    <row r="17" spans="1:15" ht="152.25">
       <c r="A17" s="14">
         <v>63</v>
       </c>
@@ -3072,40 +3117,40 @@
         <v>28</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F17" s="17">
         <v>44958.683935185189</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
+    <row r="18" spans="1:15" ht="152.25">
       <c r="A18" s="14">
         <v>64</v>
       </c>
@@ -3113,38 +3158,40 @@
         <v>28</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F18" s="17">
         <v>44958.690949074073</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="K18" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="152.25">
       <c r="A19" s="14">
         <v>65</v>
       </c>
@@ -3152,38 +3199,40 @@
         <v>28</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="F19" s="17">
         <v>44958.697060185186</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="K19" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="152.25">
       <c r="A20" s="14">
         <v>66</v>
       </c>
@@ -3191,40 +3240,40 @@
         <v>28</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F20" s="17">
         <v>44958.704756944448</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1">
+    <row r="21" spans="1:15" ht="152.25">
       <c r="A21" s="14">
         <v>67</v>
       </c>
@@ -3232,38 +3281,40 @@
         <v>28</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="F21" s="17">
         <v>44958.710370370369</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="K21" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1">
+    <row r="22" spans="1:15" ht="152.25">
       <c r="A22" s="14">
         <v>68</v>
       </c>
@@ -3271,40 +3322,40 @@
         <v>28</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F22" s="17">
         <v>44958.71974537037</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1">
+    <row r="23" spans="1:15" ht="152.25">
       <c r="A23" s="14">
         <v>69</v>
       </c>
@@ -3312,38 +3363,40 @@
         <v>28</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F23" s="17">
         <v>44958.724502314813</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="K23" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1">
+    <row r="24" spans="1:15" ht="152.25">
       <c r="A24" s="14">
         <v>70</v>
       </c>
@@ -3351,42 +3404,42 @@
         <v>28</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F24" s="17">
         <v>44958.73033564815</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1">
+    <row r="25" spans="1:15" ht="152.25">
       <c r="A25" s="14">
         <v>71</v>
       </c>
@@ -3394,38 +3447,40 @@
         <v>28</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F25" s="17">
         <v>44958.735335648147</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="K25" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1">
+    <row r="26" spans="1:15" ht="152.25">
       <c r="A26" s="14">
         <v>72</v>
       </c>
@@ -3433,38 +3488,40 @@
         <v>28</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F26" s="17">
         <v>44958.740347222221</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="K26" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1">
+    <row r="27" spans="1:15" ht="152.25">
       <c r="A27" s="14">
         <v>73</v>
       </c>
@@ -3472,40 +3529,40 @@
         <v>28</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="F27" s="17">
         <v>44958.746111111112</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1">
+    <row r="28" spans="1:15" ht="152.25">
       <c r="A28" s="14">
         <v>74</v>
       </c>
@@ -3513,36 +3570,36 @@
         <v>28</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="F28" s="17">
         <v>44958.751944444448</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O28" s="21"/>
     </row>
@@ -13729,94 +13786,94 @@
         <v>14</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
@@ -14839,18 +14896,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit-my.sharepoint.com/personal/daniele_dallosso_eng_it/Documents/Documenti/CDA2/Accreditamento FSE 2.0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1951EB32-6A19-4998-9745-6DCD91B2EFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="2460" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="2460" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$9:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="N9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,15 +251,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-02-01T18:04:21Z</t>
-  </si>
-  <si>
-    <t>d6e49cc46a61b64a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.599582e4fd1d8f41688834638d9d670cd47c0b6506d946898d2c323b5f453873.a5c2d993f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -277,15 +262,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-02-01T18:05:31Z</t>
-  </si>
-  <si>
-    <t>251e35756dc41255</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.45a827ba1c8f8a952c105e7db3b842fdd1baa18daec03620209651032b539fa5.5fee7b270c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
   </si>
   <si>
@@ -294,30 +270,12 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-02-01T18:12:12Z</t>
-  </si>
-  <si>
-    <t>af3c6e3702e0de6c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.2c05340a1a83dadf13c27f7f5e29d823c6e44ff263fccedee2a3a6a55bb86f9f.8508b13d9c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2023-02-01T16:13:09Z</t>
-  </si>
-  <si>
-    <t>54a3990659756f48</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.13d2234d90^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -730,11 +688,47 @@
   <si>
     <t>NO</t>
   </si>
+  <si>
+    <t>2023-02-17T15:41:11Z</t>
+  </si>
+  <si>
+    <t>2023-02-17T14:55:21Z</t>
+  </si>
+  <si>
+    <t>2023-02-17T13:02:48Z</t>
+  </si>
+  <si>
+    <t>2023-02-17T12:40:49Z</t>
+  </si>
+  <si>
+    <t>43d9255411f5194e</t>
+  </si>
+  <si>
+    <t>01436bd678ab3c0e</t>
+  </si>
+  <si>
+    <t>865e75a2aed54c72</t>
+  </si>
+  <si>
+    <t>59139ef14a295278</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.cd42edb80cb67dc045b7c0a22882ce4eab8e08e2de5305813ce291a4deabe880.3df0c093d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.90e5d3e60ed8510a1f8e8b7a8af2e0077d657f289a2fcc0f639c578be3f7631e.3544a9086b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.06d34f92d4ec8c15b804b2b1aa0c98019bcb2b607170a13009d720d824211d59.1a6745d673^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.0ab9776ebbd089cbcd7530973f52084b84311fd5c462e14770605e085d54feaf.abbcd4d34b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1263,25 +1257,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1337,12 +1331,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -1360,18 +1354,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:A3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:A3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ESITO"/>
+    <tableColumn id="1" name="ESITO"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="B1:B3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="B1:B3">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="APPLICABILITA'"/>
+    <tableColumn id="1" name="APPLICABILITA'"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1574,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2645,14 +2639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2683,12 +2677,12 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="42"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2701,14 +2695,14 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="42"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2723,10 +2717,10 @@
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2742,10 +2736,10 @@
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="42"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2759,7 +2753,7 @@
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A6" s="39"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2846,7 +2840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="183">
+    <row r="10" spans="1:15" ht="195">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2863,27 +2857,27 @@
         <v>31</v>
       </c>
       <c r="F10" s="17">
-        <v>44958.753020833334</v>
+        <v>44974</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="20"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="183">
+    <row r="11" spans="1:15" ht="195">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2894,33 +2888,33 @@
         <v>29</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="17">
-        <v>44958.753831018519</v>
+        <v>44974</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="20"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="183">
+    <row r="12" spans="1:15" ht="195">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -2931,33 +2925,33 @@
         <v>29</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F12" s="17">
-        <v>44958.758472222224</v>
+        <v>44974</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="20"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="1:15" ht="183">
+    <row r="13" spans="1:15" ht="195">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2968,33 +2962,33 @@
         <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F13" s="17">
-        <v>44958.675798611112</v>
+        <v>44974</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="20"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="1:15" ht="137.25">
+    <row r="14" spans="1:15" ht="150">
       <c r="A14" s="14">
         <v>29</v>
       </c>
@@ -3005,37 +2999,37 @@
         <v>29</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F14" s="17">
         <v>44965.746840277781</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
       <c r="N14" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="137.25">
+    <row r="15" spans="1:15" ht="150">
       <c r="A15" s="14">
         <v>37</v>
       </c>
@@ -3046,37 +3040,37 @@
         <v>29</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F15" s="17">
         <v>44965.744155092594</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
       <c r="N15" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="45.75">
+    <row r="16" spans="1:15" ht="60">
       <c r="A16" s="14">
         <v>45</v>
       </c>
@@ -3087,29 +3081,29 @@
         <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="1:15" ht="152.25">
+    <row r="17" spans="1:15" ht="165">
       <c r="A17" s="14">
         <v>63</v>
       </c>
@@ -3120,37 +3114,37 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F17" s="17">
         <v>44958.683935185189</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="152.25">
+    <row r="18" spans="1:15" ht="165">
       <c r="A18" s="14">
         <v>64</v>
       </c>
@@ -3161,37 +3155,37 @@
         <v>29</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F18" s="17">
         <v>44958.690949074073</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="152.25">
+    <row r="19" spans="1:15" ht="165">
       <c r="A19" s="14">
         <v>65</v>
       </c>
@@ -3202,37 +3196,37 @@
         <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F19" s="17">
         <v>44958.697060185186</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="152.25">
+    <row r="20" spans="1:15" ht="165">
       <c r="A20" s="14">
         <v>66</v>
       </c>
@@ -3243,37 +3237,37 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F20" s="17">
         <v>44958.704756944448</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="152.25">
+    <row r="21" spans="1:15" ht="165">
       <c r="A21" s="14">
         <v>67</v>
       </c>
@@ -3284,37 +3278,37 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F21" s="17">
         <v>44958.710370370369</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="152.25">
+    <row r="22" spans="1:15" ht="165">
       <c r="A22" s="14">
         <v>68</v>
       </c>
@@ -3325,37 +3319,37 @@
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F22" s="17">
         <v>44958.71974537037</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" spans="1:15" ht="152.25">
+    <row r="23" spans="1:15" ht="165">
       <c r="A23" s="14">
         <v>69</v>
       </c>
@@ -3366,37 +3360,37 @@
         <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F23" s="17">
         <v>44958.724502314813</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
       <c r="N23" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" spans="1:15" ht="152.25">
+    <row r="24" spans="1:15" ht="165">
       <c r="A24" s="14">
         <v>70</v>
       </c>
@@ -3407,39 +3401,39 @@
         <v>29</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F24" s="17">
         <v>44958.73033564815</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" spans="1:15" ht="152.25">
+    <row r="25" spans="1:15" ht="165">
       <c r="A25" s="14">
         <v>71</v>
       </c>
@@ -3450,37 +3444,37 @@
         <v>29</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F25" s="17">
         <v>44958.735335648147</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
       <c r="N25" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" spans="1:15" ht="152.25">
+    <row r="26" spans="1:15" ht="165">
       <c r="A26" s="14">
         <v>72</v>
       </c>
@@ -3491,37 +3485,37 @@
         <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F26" s="17">
         <v>44958.740347222221</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" spans="1:15" ht="152.25">
+    <row r="27" spans="1:15" ht="165">
       <c r="A27" s="14">
         <v>73</v>
       </c>
@@ -3532,37 +3526,37 @@
         <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F27" s="17">
         <v>44958.746111111112</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
       <c r="N27" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" spans="1:15" ht="152.25">
+    <row r="28" spans="1:15" ht="165">
       <c r="A28" s="14">
         <v>74</v>
       </c>
@@ -3573,33 +3567,33 @@
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F28" s="17">
         <v>44958.751944444448</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O28" s="21"/>
     </row>
@@ -13744,7 +13738,7 @@
       <c r="O873" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:O28" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A9:O28"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -13761,7 +13755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13786,24 +13780,24 @@
         <v>14</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -13811,69 +13805,69 @@
         <v>29</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>147</v>
-      </c>
       <c r="D6" s="32" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
@@ -14874,7 +14868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14896,18 +14890,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
@@ -689,40 +689,40 @@
     <t>NO</t>
   </si>
   <si>
-    <t>2023-02-17T15:41:11Z</t>
+    <t>2023-03-08T15:42:52Z</t>
   </si>
   <si>
-    <t>2023-02-17T14:55:21Z</t>
+    <t>2023-03-08T15:32:45Z</t>
   </si>
   <si>
-    <t>2023-02-17T13:02:48Z</t>
+    <t>2023-03-08T15:26:48Z</t>
   </si>
   <si>
-    <t>2023-02-17T12:40:49Z</t>
+    <t>2023-03-08T15:11:50Z</t>
   </si>
   <si>
-    <t>43d9255411f5194e</t>
+    <t>bf456a3f5689cb98</t>
   </si>
   <si>
-    <t>01436bd678ab3c0e</t>
+    <t>f81fc5c5f173b422</t>
   </si>
   <si>
-    <t>865e75a2aed54c72</t>
+    <t>606c08917e98e6c6</t>
   </si>
   <si>
-    <t>59139ef14a295278</t>
+    <t>0a1a1d5382323b73</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.cd42edb80cb67dc045b7c0a22882ce4eab8e08e2de5305813ce291a4deabe880.3df0c093d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.cd42edb80cb67dc045b7c0a22882ce4eab8e08e2de5305813ce291a4deabe880.b89373b163^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.90e5d3e60ed8510a1f8e8b7a8af2e0077d657f289a2fcc0f639c578be3f7631e.3544a9086b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.90e5d3e60ed8510a1f8e8b7a8af2e0077d657f289a2fcc0f639c578be3f7631e.0ecce6b970^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.06d34f92d4ec8c15b804b2b1aa0c98019bcb2b607170a13009d720d824211d59.1a6745d673^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.06d34f92d4ec8c15b804b2b1aa0c98019bcb2b607170a13009d720d824211d59.f9a8de1696^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.0ab9776ebbd089cbcd7530973f52084b84311fd5c462e14770605e085d54feaf.abbcd4d34b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.0ab9776ebbd089cbcd7530973f52084b84311fd5c462e14770605e085d54feaf.9b1038849d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2643,10 +2643,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2857,7 +2857,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="17">
-        <v>44974</v>
+        <v>44993</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>142</v>
@@ -2894,7 +2894,7 @@
         <v>34</v>
       </c>
       <c r="F11" s="17">
-        <v>44974</v>
+        <v>44993</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>143</v>
@@ -2931,7 +2931,7 @@
         <v>36</v>
       </c>
       <c r="F12" s="17">
-        <v>44974</v>
+        <v>44993</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>144</v>
@@ -2968,7 +2968,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="17">
-        <v>44974</v>
+        <v>44993</v>
       </c>
       <c r="G13" s="18" t="s">
         <v>145</v>

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/AREAS_ADTWEB/20.15.00/accreditamento-checklist_AREAS_ADTWEB.xlsx
@@ -392,9 +392,6 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>Viene segnalato un errore di timeout e si chiede all'utente di provare più tardi.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
   </si>
   <si>
@@ -600,9 +597,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.67b9ce2cf9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Viene segnalato all'operatore un problema sulla codifica della diagnosi selezionata. L'operatore non è autonomo nella risoluzione bensì è necessario un intervento di configurazione.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
   </si>
   <si>
@@ -618,9 +612,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.54f26fc703f6752be3bda44d513722e874b071231429a5b83dc67249122a7b9e.5d30cc0b4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Viene segnalato all'operatore un problema sulla via di somministrazione di un farmaco somministrato. L'operatore non è autonomo nella risoluzione bensì è necessario un intervento di configurazione.</t>
   </si>
   <si>
     <t>ID TEST CASE OK</t>
@@ -723,6 +714,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.0ab9776ebbd089cbcd7530973f52084b84311fd5c462e14770605e085d54feaf.9b1038849d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore un problema sulla codifica della diagnosi selezionata. Il referto non viene prodotto e il messaggio a video invita l'utente a contattare l'amministratore di sistema</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'operatore un problema sulla via di somministrazione di un farmaco somministrato.  Il referto non viene prodotto e il messaggio a video invita l'utente a contattare l'amministratore di sistema</t>
+  </si>
+  <si>
+    <t>Viene segnalato un errore di timeout, ma il flusso applicativo prosegue con la produzione del referto</t>
   </si>
 </sst>
 </file>
@@ -2643,10 +2643,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2860,13 +2860,13 @@
         <v>44993</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2897,13 +2897,13 @@
         <v>44993</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
@@ -2934,13 +2934,13 @@
         <v>44993</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
@@ -2971,13 +2971,13 @@
         <v>44993</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
@@ -3091,7 +3091,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>32</v>
@@ -3114,25 +3114,25 @@
         <v>29</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>53</v>
       </c>
       <c r="F17" s="17">
         <v>44958.683935185189</v>
       </c>
       <c r="G17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="J17" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>32</v>
@@ -3155,25 +3155,25 @@
         <v>29</v>
       </c>
       <c r="D18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="F18" s="17">
         <v>44958.690949074073</v>
       </c>
       <c r="G18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="I18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="J18" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>32</v>
@@ -3196,25 +3196,25 @@
         <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>65</v>
       </c>
       <c r="F19" s="17">
         <v>44958.697060185186</v>
       </c>
       <c r="G19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="I19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="J19" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>32</v>
@@ -3237,25 +3237,25 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="F20" s="17">
         <v>44958.704756944448</v>
       </c>
       <c r="G20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="I20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="J20" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>32</v>
@@ -3278,25 +3278,25 @@
         <v>29</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F21" s="17">
         <v>44958.710370370369</v>
       </c>
       <c r="G21" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="I21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>79</v>
-      </c>
       <c r="J21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>32</v>
@@ -3319,25 +3319,25 @@
         <v>29</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="F22" s="17">
         <v>44958.71974537037</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="I22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="J22" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>32</v>
@@ -3360,25 +3360,25 @@
         <v>29</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="F23" s="17">
         <v>44958.724502314813</v>
       </c>
       <c r="G23" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="I23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="18" t="s">
-        <v>90</v>
-      </c>
       <c r="J23" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>32</v>
@@ -3401,31 +3401,31 @@
         <v>29</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="F24" s="17">
         <v>44958.73033564815</v>
       </c>
       <c r="G24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="I24" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="J24" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="20" t="s">
@@ -3444,25 +3444,25 @@
         <v>29</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="F25" s="17">
         <v>44958.735335648147</v>
       </c>
       <c r="G25" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="I25" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="18" t="s">
-        <v>102</v>
-      </c>
       <c r="J25" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>32</v>
@@ -3485,25 +3485,25 @@
         <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="F26" s="17">
         <v>44958.740347222221</v>
       </c>
       <c r="G26" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="I26" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="18" t="s">
-        <v>107</v>
-      </c>
       <c r="J26" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>32</v>
@@ -3526,25 +3526,25 @@
         <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F27" s="17">
         <v>44958.746111111112</v>
       </c>
       <c r="G27" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="I27" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I27" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="J27" s="19" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="K27" s="19" t="s">
         <v>32</v>
@@ -3567,25 +3567,25 @@
         <v>29</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F28" s="17">
         <v>44958.751944444448</v>
       </c>
       <c r="G28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="J28" s="19" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>32</v>
@@ -13780,24 +13780,24 @@
         <v>14</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -13805,69 +13805,69 @@
         <v>29</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>126</v>
-      </c>
       <c r="D3" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
@@ -14890,7 +14890,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>32</v>
@@ -14898,10 +14898,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">
